--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,264 +435,88 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24/12/2020 10:00am-11:05am</t>
+          <t>26/12/20 4:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case ate at restaurant</t>
+          <t>Case attended Spanish Service</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+          <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29/12/2020 02:00pm-02:30pm</t>
+          <t>28/12/20 2:45pm-5:30pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>2:45pm showing of Wonder Woman 1984 (Gold Class)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>26/12/20 4:00pm-6:00pm</t>
+          <t>23/12/20 12:30pm-1:30pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case attended Spanish Service</t>
+          <t>Case attended club house bar</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
+          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28/12/20 2:45pm-5:30pm</t>
+          <t>28/12/20 4:40pm-5:15pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2:45pm showing of Wonder Woman 1984 (Gold Class)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lakes Entrance</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>29/12/2020 09:30am-10:45am</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Case ate in cafe</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lakes Entrance</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>29/12/2020 05:30pm-05:50pm</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Case in hotel bar</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Lakes Entrance</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>29/12/2020 03:30pm-04:30pm</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Case visited pool area</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mentone</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>29/12/2020 07:30am-08:00am</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Mentone</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>31/12/2020 08:00am-08:30am</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Mordialloc</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>23/12/20 12:30pm-1:30pm</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>Case attended club house bar</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Mordialloc</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>28/12/20 4:40pm-5:15pm</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Case attended club house bar</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Strathbogie</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Wonga Estate Strathbogie Ranges 292 Brookleigh Road, Strathbogie VIC 3666</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>29/12/2020 01:00pm-02:00pm</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Case visited vineyard</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2:45pm showing of Wonder Woman 1984 (Gold Class)</t>
+          <t>Case attended Gold Class screening Wonder Woman 1984</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,88 +413,88 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Black Rock</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Royal Brighton Yacht Club - outdoor dining  253 Esplanade, Brighton VIC 3186</t>
+          <t>Smile Buffalo Thai restaurant  305 Beach Road, Black Rock VIC 3193</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>29/12/20 12:00pm-2:00pm</t>
+          <t>21/12/20 7:30pm-9:30pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case dined in outdoor restaurant</t>
+          <t>Case dined in restaurant</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Royal Brighton Yacht Club - outdoor dining  253 Esplanade, Brighton VIC 3186</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26/12/20 4:00pm-6:00pm</t>
+          <t>29/12/20 12:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case attended Spanish Service</t>
+          <t>Case dined in outdoor restaurant</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28/12/20 2:45pm-5:30pm</t>
+          <t>26/12/20 4:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case attended Gold Class screening Wonder Woman 1984</t>
+          <t>Case attended Spanish Service</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+          <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>23/12/20 12:30pm-1:30pm</t>
+          <t>28/12/20 2:45pm-5:30pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case attended club house bar</t>
+          <t>Case attended Gold Class screening Wonder Woman 1984</t>
         </is>
       </c>
     </row>
@@ -511,10 +511,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>23/12/20 12:30pm-1:30pm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Case attended club house bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>28/12/20 4:40pm-5:15pm</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Case attended club house bar</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,108 +435,174 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Black Rock</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Royal Brighton Yacht Club - outdoor dining  253 Esplanade, Brighton VIC 3186</t>
+          <t>Smile Buffalo Thai restaurant  305 Beach Road, Black Rock VIC 3193</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>29/12/20 12:00pm-2:00pm</t>
+          <t>27/12/20 7.30pm - 9pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case dined in outdoor restaurant</t>
+          <t>Case dined for dinner</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Royal Brighton Yacht Club - outdoor dining  253 Esplanade, Brighton VIC 3186</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26/12/20 4:00pm-6:00pm</t>
+          <t>29/12/20 12:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case attended Spanish Service</t>
+          <t>Case dined in outdoor restaurant</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28/12/20 2:45pm-5:30pm</t>
+          <t>26/12/20 4:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case attended Gold Class screening Wonder Woman 1984</t>
+          <t>Case attended Spanish Service</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+          <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>23/12/20 12:30pm-1:30pm</t>
+          <t>28/12/20 2:45pm-5:30pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case attended club house bar</t>
+          <t>Case attended Gold Class screening Wonder Woman 1984</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Left Bank Melbourne, 1 Southbank Blvd</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>25/12/20 12pm - 3pm</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Case ate in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>28/12/2020 10pm - 12.30am</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Case attended Venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Mordialloc</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>23/12/20 12:30pm-1:30pm</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Case attended club house bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>28/12/20 4:40pm-5:15pm</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Case attended club house bar</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,22 +523,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>McKinnon</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne, 1 Southbank Blvd</t>
+          <t>Hotlocks By Rachael Hairdresser, 260 McKinnon Road, McKinnon VIC 3204</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25/12/20 12pm - 3pm</t>
+          <t>23/12/20 4:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case ate in store</t>
+          <t>Case had hair cut in store</t>
         </is>
       </c>
     </row>
@@ -550,17 +550,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+          <t>Left Bank Melbourne, 1 Southbank Blvd</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28/12/2020 10pm - 12.30am</t>
+          <t>25/12/20 12pm - 3pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case attended Venue</t>
+          <t>Case ate in store</t>
         </is>
       </c>
     </row>
@@ -605,6 +605,28 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>Case attended club house bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Southbank</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>23/12/20 8:00pm-11:00pm</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Case attended restaurant</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,64 +567,108 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23/12/20 12:30pm-1:30pm</t>
+          <t>28/12/2020 10:30pm-12.00am</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case attended club house bar</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>28/12/20 4:40pm-5:15pm</t>
+          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended club house bar</t>
+          <t>Case's workplace</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>23/12/20 12:30pm-1:30pm</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Case attended club house bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>28/12/20 4:40pm-5:15pm</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Case attended club house bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Southbank</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>23/12/20 8:00pm-11:00pm</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Case attended restaurant</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,88 +479,88 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>26/12/20 4:00pm-6:00pm</t>
+          <t>29/12/20 12:30pm-1:30pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case attended Spanish Service</t>
+          <t>Case ate at restaurant</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28/12/20 2:45pm-5:30pm</t>
+          <t>26/12/20 4:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case attended Gold Class screening Wonder Woman 1984</t>
+          <t>Case attended Spanish Service</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>McKinnon</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hotlocks By Rachael Hairdresser, 260 McKinnon Road, McKinnon VIC 3204</t>
+          <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>23/12/20 4:00pm-6:00pm</t>
+          <t>28/12/20 2:45pm-5:30pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case had hair cut in store</t>
+          <t>Case attended Gold Class screening Wonder Woman 1984</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>McKinnon</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne, 1 Southbank Blvd</t>
+          <t>Hotlocks By Rachael Hairdresser, 260 McKinnon Road, McKinnon VIC 3204</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25/12/20 12pm - 3pm</t>
+          <t>23/12/20 4:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case ate in store</t>
+          <t>Case had hair cut in store</t>
         </is>
       </c>
     </row>
@@ -572,61 +572,61 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+          <t>Left Bank Melbourne, 1 Southbank Blvd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28/12/2020 10:30pm-12.00am</t>
+          <t>25/12/20 12pm - 3pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case ate in store</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
+          <t>28/12/2020 10:00pm-12.00am</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case's workplace</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>23/12/20 12:30pm-1:30pm</t>
+          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case attended club house bar</t>
+          <t>Case's workplace</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>28/12/20 4:40pm-5:15pm</t>
+          <t>23/12/20 12:30pm-1:30pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -655,20 +655,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>28/12/20 4:40pm-5:15pm</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Case attended club house bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Southbank</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>23/12/20 8:00pm-11:00pm</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Case attended restaurant</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,22 +391,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Black Rock</t>
+          <t>Abbotsford</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Smile Buffalo Thai restaurant  305 Beach Road, Black Rock VIC 3193</t>
+          <t>Bodriggy Brewing Company  245 Johnston Street, Abbotsford VIC 3067</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21/12/20 6:30pm-9:40pm</t>
+          <t>28/12/20 2:50pm-5:30pm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Case dined at venue</t>
         </is>
       </c>
     </row>
@@ -423,276 +423,386 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21/12/20 7:30pm-9:30pm</t>
+          <t>27/12/20 7.30pm - 9pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case dined in restaurant</t>
+          <t>Case dined for dinner</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Black Rock</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Smile Buffalo Thai restaurant  305 Beach Road, Black Rock VIC 3193</t>
+          <t>Royal Brighton Yacht Club - outdoor dining  253 Esplanade, Brighton VIC 3186</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>27/12/20 7.30pm - 9pm</t>
+          <t>29/12/20 12:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case dined for dinner</t>
+          <t>Case dined in outdoor restaurant</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Royal Brighton Yacht Club - outdoor dining  253 Esplanade, Brighton VIC 3186</t>
+          <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29/12/20 12:00pm-2:00pm</t>
+          <t>29/12/20 12:30pm-1:30pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case dined in outdoor restaurant</t>
+          <t>Case ate at restaurant</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
+          <t>Two Bob Snob, 256 Charman Road</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/12/20 12:30pm-1:30pm</t>
+          <t>22/12/2020 1pm - 2pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case ate at restaurant</t>
+          <t>Case attended Venue</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Stomping Ground Brewing Company, 100 Gipps Street, Collingwood VIC 3066</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>26/12/20 4:00pm-6:00pm</t>
+          <t>28/12/20 6:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case attended Spanish Service</t>
+          <t>Case dined at venue</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
+          <t>Melbourne Boat Hire - Yarra River Cruise. 45 Newquay Promenade, Docklands VIC 3008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>28/12/20 2:45pm-5:30pm</t>
+          <t>28/12/20 11.26am-2:00pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case attended Gold Class screening Wonder Woman 1984</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>McKinnon</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hotlocks By Rachael Hairdresser, 260 McKinnon Road, McKinnon VIC 3204</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23/12/20 4:00pm-6:00pm</t>
+          <t>26/12/20 4:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case had hair cut in store</t>
+          <t>Case attended Spanish Service</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne, 1 Southbank Blvd</t>
+          <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>25/12/20 12pm - 3pm</t>
+          <t>28/12/20 2:45pm-5:30pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case ate in store</t>
+          <t>Case attended Gold Class screening Wonder Woman 1984</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hampton</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>28/12/2020 10:00pm-12.00am</t>
+          <t>28-12-2020 1:30pm-2:30pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case ate in store</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+          <t>Sikh Temple Keysborough, 198-206 Perry Road, Keysborough</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
+          <t>1/01/21 3:00pm-5:00pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case's workplace</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>McKinnon</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+          <t>Hotlocks By Rachael Hairdresser, 260 McKinnon Road, McKinnon VIC 3204</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>23/12/20 12:30pm-1:30pm</t>
+          <t>23/12/20 4:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case attended club house bar</t>
+          <t>Case had hair cut in store</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+          <t>Left Bank Melbourne, 1 Southbank Blvd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>28/12/20 4:40pm-5:15pm</t>
+          <t>25/12/20 12pm - 3pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case attended club house bar</t>
+          <t>Case ate in store</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>28/12/2020 10:00pm-12.00am</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Moorabbin</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Case's workplace</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>23/12/20 12:30pm-1:30pm</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Case attended club house bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>28/12/20 4:40pm-5:15pm</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Case attended club house bar</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Southbank</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>23/12/20 8:00pm-11:00pm</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Case attended restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Springvale</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IKEA Springvale - Cafe and Restaurant, 917 Princes Hwy</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>30/12/20 5:30pm - 6.30pm</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Case dined at cafe</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,44 +699,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+          <t>Nandos  27 Elizabeth Street, Melbourne</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
+          <t>01/01/2021 2:00am - 2:30am</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case's workplace</t>
+          <t>Case dined at venue</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>23/12/20 12:30pm-1:30pm</t>
+          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case attended club house bar</t>
+          <t>Case's workplace</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>28/12/20 4:40pm-5:15pm</t>
+          <t>23/12/20 12:30pm-1:30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -765,42 +765,64 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Southbank</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
+          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23/12/20 8:00pm-11:00pm</t>
+          <t>28/12/20 4:40pm-5:15pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case attended club house bar</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Southbank</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>23/12/20 8:00pm-11:00pm</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Case attended restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Springvale</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>IKEA Springvale - Cafe and Restaurant, 917 Princes Hwy</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>30/12/20 5:30pm - 6.30pm</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Case dined at cafe</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -423,7 +423,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>27/12/20 7.30pm - 9pm</t>
+          <t>27/12/20 7.30pm-9:00pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -479,176 +479,176 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Collingwood</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Two Bob Snob, 256 Charman Road</t>
+          <t>Stomping Ground Brewing Company, 100 Gipps Street, Collingwood VIC 3066</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22/12/2020 1pm - 2pm</t>
+          <t>28/12/20 6:00pm-7:30pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case attended Venue</t>
+          <t>Case dined at venue</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Docklands</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stomping Ground Brewing Company, 100 Gipps Street, Collingwood VIC 3066</t>
+          <t>Melbourne Boat Hire - Yarra River Cruise. 45 Newquay Promenade, Docklands VIC 3008</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28/12/20 6:00pm-7:30pm</t>
+          <t>28/12/20 11.26am-2:00pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case dined at venue</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Doveton</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Melbourne Boat Hire - Yarra River Cruise. 45 Newquay Promenade, Docklands VIC 3008</t>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>28/12/20 11.26am-2:00pm</t>
+          <t>26/12/20 4:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case attended Spanish Service</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>26/12/20 4:00pm-6:00pm</t>
+          <t>28/12/20 2:45pm-5:30pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case attended Spanish Service</t>
+          <t>Case attended Gold Class screening Wonder Woman 1984</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Hampton</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
+          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28/12/20 2:45pm-5:30pm</t>
+          <t>28/12/20 1:30pm-2:30pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case attended Gold Class screening Wonder Woman 1984</t>
+          <t>Case ate in store</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hampton</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
+          <t>Sikh Temple Keysborough, 198-206 Perry Road, Keysborough</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>28-12-2020 1:30pm-2:30pm</t>
+          <t>1/01/21 3:00pm-5:00pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case ate in store</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>McKinnon</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sikh Temple Keysborough, 198-206 Perry Road, Keysborough</t>
+          <t>Hotlocks By Rachael Hairdresser, 260 McKinnon Road, McKinnon VIC 3204</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1/01/21 3:00pm-5:00pm</t>
+          <t>23/12/20 4:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case visited venue</t>
+          <t>Case had hair cut in store</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>McKinnon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hotlocks By Rachael Hairdresser, 260 McKinnon Road, McKinnon VIC 3204</t>
+          <t>Left Bank Melbourne, 1 Southbank Blvd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>23/12/20 4:00pm-6:00pm</t>
+          <t>25/12/20 12:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case had hair cut in store</t>
+          <t>Case ate in store</t>
         </is>
       </c>
     </row>
@@ -660,17 +660,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne, 1 Southbank Blvd</t>
+          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>25/12/20 12pm - 3pm</t>
+          <t>28/12/20 10:00pm-12.00am</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case ate in store</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
@@ -682,61 +682,61 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+          <t>Nandos  27 Elizabeth Street, Melbourne</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>28/12/2020 10:00pm-12.00am</t>
+          <t>01/01/2021 2:00am-2:30am</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case dined at venue</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nandos  27 Elizabeth Street, Melbourne</t>
+          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/01/2021 2:00am - 2:30am</t>
+          <t>24/12/20 1:00pm-10:00pm  28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case dined at venue</t>
+          <t>Case's workplace</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
+          <t>23/12/20 12:30pm-1:30pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case's workplace</t>
+          <t>Case attended club house bar</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>23/12/20 12:30pm-1:30pm</t>
+          <t>28/12/20 4:40pm-5:15pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -765,22 +765,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>South Melbourne</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+          <t>The Nike Company  134 Buckhurst Street, South Melbourne</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>28/12/20 4:40pm-5:15pm</t>
+          <t>30/12/20, 12:00pm-12:45pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case attended club house bar</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case attended restaurant</t>
+          <t>Case ate in store</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>30/12/20 5:30pm - 6.30pm</t>
+          <t>30/12/20 5:30pm-6.30pm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +577,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28/12/20 1:30pm-2:30pm</t>
+          <t>28/12/20 12:50pm-2:40pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -611,22 +611,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>McKinnon</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hotlocks By Rachael Hairdresser, 260 McKinnon Road, McKinnon VIC 3204</t>
+          <t>Left Bank Melbourne Restaurant and Cocktail Bar, 1 Southbank Blvd</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>23/12/20 4:00pm-6:00pm</t>
+          <t>25/12/20 12:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case had hair cut in store</t>
+          <t>Case attended bar</t>
         </is>
       </c>
     </row>
@@ -638,17 +638,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne, 1 Southbank Blvd</t>
+          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>25/12/20 12:00pm-3:00pm</t>
+          <t>28/12/20 10:00pm-12.00am</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case ate in store</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
@@ -660,169 +660,103 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+          <t>Nandos  27 Elizabeth Street, Melbourne</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>28/12/20 10:00pm-12.00am</t>
+          <t>01/01/2021 2:00am-2:30am</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case dined at venue</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nandos  27 Elizabeth Street, Melbourne</t>
+          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/01/2021 2:00am-2:30am</t>
+          <t>24/12/20 1:00pm-10:00pm  28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case dined at venue</t>
+          <t>Case's workplace</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>24/12/20 1:00pm-10:00pm  28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
+          <t>28/12/20 4:40pm-5:15pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case's workplace</t>
+          <t>Case attended club house bar</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>South Melbourne</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+          <t>The Nike Company  134 Buckhurst Street, South Melbourne</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>23/12/20 12:30pm-1:30pm</t>
+          <t>30/12/20, 12:00pm-12:45pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case attended club house bar</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+          <t>IKEA Springvale - Cafe and Restaurant, 917 Princes Hwy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>28/12/20 4:40pm-5:15pm</t>
+          <t>30/12/20 5:30pm-6.30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>Case attended club house bar</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>South Melbourne</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>The Nike Company  134 Buckhurst Street, South Melbourne</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>30/12/20, 12:00pm-12:45pm</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Case shopped</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Southbank</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>23/12/20 8:00pm-11:00pm</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Case ate in store</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Springvale</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>IKEA Springvale - Cafe and Restaurant, 917 Princes Hwy</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>30/12/20 5:30pm-6.30pm</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
         <is>
           <t>Case dined at cafe</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1/01/21 3:00pm-5:00pm</t>
+          <t>1/01/21 3:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -687,7 +687,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>24/12/20 1:00pm-10:00pm  28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
+          <t>28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,17 +616,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Left Bank Melbourne Restaurant and Cocktail Bar, 1 Southbank Blvd</t>
+          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>25/12/20 12:00pm-3:00pm</t>
+          <t>28/12/20 10:00pm-12.00am</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case attended bar</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
@@ -638,125 +638,103 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+          <t>Nandos  27 Elizabeth Street, Melbourne</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>28/12/20 10:00pm-12.00am</t>
+          <t>01/01/2021 2:00am-2:30am</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case dined at venue</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nandos  27 Elizabeth Street, Melbourne</t>
+          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/01/2021 2:00am-2:30am</t>
+          <t>28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case dined at venue</t>
+          <t>Case's workplace</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
+          <t>28/12/20 4:40pm-5:15pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case's workplace</t>
+          <t>Case attended club house bar</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>South Melbourne</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+          <t>The Nike Company  134 Buckhurst Street, South Melbourne</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>28/12/20 4:40pm-5:15pm</t>
+          <t>30/12/20, 12:00pm-12:45pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case attended club house bar</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>South Melbourne</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Nike Company  134 Buckhurst Street, South Melbourne</t>
+          <t>IKEA Springvale - Cafe and Restaurant, 917 Princes Hwy</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30/12/20, 12:00pm-12:45pm</t>
+          <t>30/12/20 5:30pm-6.30pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>Case shopped</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Springvale</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>IKEA Springvale - Cafe and Restaurant, 917 Princes Hwy</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>30/12/20 5:30pm-6.30pm</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
         <is>
           <t>Case dined at cafe</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,127 +391,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abbotsford</t>
+          <t>Brandon Park</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bodriggy Brewing Company  245 Johnston Street, Abbotsford VIC 3067</t>
+          <t>Kmart, Brandon Park Shopping Centre  Cnr Springvale Rd and Ferntree Gully Rd  Brandon Park, VIC 3170</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>28/12/20 2:50pm-5:30pm</t>
+          <t>16:35-17:10  31/1/2021</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Case dined at venue</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Black Rock</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Smile Buffalo Thai restaurant  305 Beach Road, Black Rock VIC 3193</t>
+          <t>North Point Cafe  2B North Rd  Brighton, VIC 3186</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>27/12/20 7.30pm-9:00pm</t>
+          <t>08:10-09:30  31/1/2021</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case dined for dinner</t>
+          <t>Case dined outside and used bathroom</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Clayton South</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Royal Brighton Yacht Club - outdoor dining  253 Esplanade, Brighton VIC 3186</t>
+          <t>Nakama Workshop  85 Main Rd  Clayton South, VIC 3169</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>29/12/20 12:00pm-2:00pm</t>
+          <t>11:15-12:00  1/2/2021</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case dined in outdoor restaurant</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Heatherton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
+          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29/12/20 12:30pm-1:30pm</t>
+          <t>17:19-18:35  1/2/2021</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case ate at restaurant</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Collingwood</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stomping Ground Brewing Company, 100 Gipps Street, Collingwood VIC 3066</t>
+          <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough, VIC 3173</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28/12/20 6:00pm-7:30pm</t>
+          <t>22:00-23:15  30/1/2021</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case dined at venue</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Docklands</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Melbourne Boat Hire - Yarra River Cruise. 45 Newquay Promenade, Docklands VIC 3008</t>
+          <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough, VIC 3173</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28/12/20 11.26am-2:00pm</t>
+          <t>16:00-17:00  31/1/2021</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -523,105 +523,105 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Doveton</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+          <t>Exford Hotel  199 Russell St  Melbourne, VIC 3000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>26/12/20 4:00pm-6:00pm</t>
+          <t>23:00-23:35  29/1/2021</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case attended Spanish Service</t>
+          <t>Case attended bottle shop</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Moorabbin Airport</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
+          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28/12/20 2:45pm-5:30pm</t>
+          <t>17:00-17:45  1/2/2021</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case attended Gold Class screening Wonder Woman 1984</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hampton</t>
+          <t>Noble Park</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
+          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28/12/20 12:50pm-2:40pm</t>
+          <t>14:36-15:30  30/01/2021</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case ate in store</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sikh Temple Keysborough, 198-206 Perry Road, Keysborough</t>
+          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1/01/21 3:00pm-6:00pm</t>
+          <t>11:30-12:15  1/2/2021</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case visited venue</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>28/12/20 10:00pm-12.00am</t>
+          <t>17:00-18:00  31/1/2021</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -633,110 +633,66 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nandos  27 Elizabeth Street, Melbourne</t>
+          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/01/2021 2:00am-2:30am</t>
+          <t>18:50-19:30  1/2/2021</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case dined at venue</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
+          <t>18:30-19:30  1/2/2021</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case's workplace</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>West Melbourne</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+          <t>Kebab Kingz  438 Spencer St  West Melbourne, VIC 3003</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>28/12/20 4:40pm-5:15pm</t>
+          <t>23:24-00:15  29/1/2021</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case attended club house bar</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>South Melbourne</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>The Nike Company  134 Buckhurst Street, South Melbourne</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30/12/20, 12:00pm-12:45pm</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Case shopped</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Springvale</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>IKEA Springvale - Cafe and Restaurant, 917 Princes Hwy</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>30/12/20 5:30pm-6.30pm</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Case dined at cafe</t>
+          <t>Case dined outside</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,61 +523,61 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Maidstone</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Exford Hotel  199 Russell St  Melbourne, VIC 3000</t>
+          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>23:00-23:35  29/1/2021</t>
+          <t>09:45-10:25  5/2/2021</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case attended bottle shop</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Moorabbin Airport</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+          <t>Exford Hotel  199 Russell St  Melbourne, VIC 3000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00-17:45  1/2/2021</t>
+          <t>23:00-23:35  29/1/2021</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case attended bottle shop</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Noble Park</t>
+          <t>Moorabbin Airport</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
+          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:36-15:30  30/01/2021</t>
+          <t>17:00-17:45  1/2/2021</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -589,17 +589,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Noble Park</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
+          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:30-12:15  1/2/2021</t>
+          <t>14:36-15:30  30/01/2021</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
+          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00-18:00  31/1/2021</t>
+          <t>11:30-12:15  1/2/2021</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -638,12 +638,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
+          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:50-19:30  1/2/2021</t>
+          <t>17:00-18:00  31/1/2021</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -660,12 +660,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
+          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:30-19:30  1/2/2021</t>
+          <t>18:50-19:30  1/2/2021</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -677,20 +677,108 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Springvale</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>18:30-19:30  1/2/2021</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:50-18:30  5/2/2021</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>18:50-19:30  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Taylors Lakes</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13:17-13:52  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>West Melbourne</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Kebab Kingz  438 Spencer St  West Melbourne, VIC 3003</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>23:24-00:15  29/1/2021</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Case dined outside</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -401,7 +401,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:35-17:10  31/1/2021</t>
+          <t>4:35pm - 5:10pm  31/1/2021</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -423,7 +423,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:10-09:30  31/1/2021</t>
+          <t>8:10am - 9:30am  31/1/2021</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -445,7 +445,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:15-12:00  1/2/2021</t>
+          <t>11:15am - 12:00pm  1/2/2021</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:19-18:35  1/2/2021</t>
+          <t>5:19pm - 6:35pm  1/2/2021</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:00-23:15  30/1/2021</t>
+          <t>10:00pm - 11:15pm  30/1/2021</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00-17:00  31/1/2021</t>
+          <t>4:00pm - 5:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:45-10:25  5/2/2021</t>
+          <t>9:45am - 10:25am  5/2/2021</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23:00-23:35  29/1/2021</t>
+          <t>11:00pm - 11:35pm  29/1/2021</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00-17:45  1/2/2021</t>
+          <t>5:00pm - 5:45pm  1/2/2021</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:36-15:30  30/01/2021</t>
+          <t>2:36pm -3:30pm  30/01/2021</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:30-12:15  1/2/2021</t>
+          <t>11:30am - 12:15pm  1/2/2021</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00-18:00  31/1/2021</t>
+          <t>5:00pm - 6:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:50-19:30  1/2/2021</t>
+          <t>6:50pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:30-19:30  1/2/2021</t>
+          <t>6:30pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:45-16:23  5/2/2021</t>
+          <t>3:45pm - 4:23pm  5/2/2021</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:57-16:30  5/2/2021</t>
+          <t>3:57pm - 4:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:40-16:15  5/2/2021</t>
+          <t>3:40pm - 4:15pm  5/2/2021</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:44-18:19  7/2/2021</t>
+          <t>5:44pm - 6:19pm  7/2/2021</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:17-19:02  6/2/2021</t>
+          <t>6:17pm - 7:02pm  6/2/2021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:37-16:10  5/2/2021</t>
+          <t>3:37pm - 4:10pm  5/2/2021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30-18:30  6/2/2021</t>
+          <t>4:30pm - 6:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:53-16:28  5/2/2021</t>
+          <t>3:53pm - 4:28pm  5/2/2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:50-18:30  5/2/2021</t>
+          <t>5:50pm - 6:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:50-19:30  6/2/2021</t>
+          <t>6:50pm - 7:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:00-13:52  6/2/2021</t>
+          <t>1:00pm - 1:52pm  6/2/2021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>23:24-00:15  29/1/2021</t>
+          <t>11:24pm -12:15am  29/1/2021</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,17 +457,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Heatherton</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
+          <t>Commonwealth Bank, 28-32 Kingsway, Glen Waverley</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5:19pm - 6:35pm  1/2/2021</t>
+          <t>1:30pm-2:45pm 9/2/2021</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -479,17 +479,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough, VIC 3173</t>
+          <t>HSBC Bank, 38 Kingsway, Glen Waverley</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:00pm - 11:15pm  30/1/2021</t>
+          <t>2:15pm-3:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -501,17 +501,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>Heatherton</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough, VIC 3173</t>
+          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4:00pm - 5:00pm  31/1/2021</t>
+          <t>5:19pm - 6:35pm  1/2/2021</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -523,17 +523,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Maidstone</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
+          <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough, VIC 3173</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9:45am - 10:25am  5/2/2021</t>
+          <t>10:00pm - 11:15pm  30/1/2021</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -545,39 +545,39 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Exford Hotel  199 Russell St  Melbourne, VIC 3000</t>
+          <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough, VIC 3173</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:00pm - 11:35pm  29/1/2021</t>
+          <t>4:00pm - 5:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case attended bottle shop</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Moorabbin Airport</t>
+          <t>Maidstone</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5:00pm - 5:45pm  1/2/2021</t>
+          <t>9:45am - 10:25am  5/2/2021</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -589,39 +589,39 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Noble Park</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
+          <t>Exford Hotel  199 Russell St  Melbourne, VIC 3000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2:36pm -3:30pm  30/01/2021</t>
+          <t>11:00pm - 11:35pm  29/1/2021</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case attended bottle shop</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Moorabbin Airport</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
+          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:30am - 12:15pm  1/2/2021</t>
+          <t>5:00pm - 5:45pm  1/2/2021</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -633,17 +633,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Noble Park</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
+          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5:00pm - 6:00pm  31/1/2021</t>
+          <t>2:36pm -3:30pm  30/01/2021</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -660,12 +660,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
+          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  1/2/2021</t>
+          <t>11:30am - 12:15pm  1/2/2021</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -682,12 +682,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
+          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6:30pm - 7:30pm  1/2/2021</t>
+          <t>5:00pm - 6:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -699,17 +699,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3:45pm - 4:23pm  5/2/2021</t>
+          <t>6:50pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -721,17 +721,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3:57pm - 4:30pm  5/2/2021</t>
+          <t>6:30pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3:40pm - 4:15pm  5/2/2021</t>
+          <t>3:45pm - 4:23pm  5/2/2021</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -770,12 +770,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5:44pm - 6:19pm  7/2/2021</t>
+          <t>3:57pm - 4:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -792,12 +792,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6:17pm - 7:02pm  6/2/2021</t>
+          <t>3:40pm - 4:15pm  5/2/2021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3:37pm - 4:10pm  5/2/2021</t>
+          <t>5:44pm - 6:19pm  7/2/2021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4:30pm - 6:30pm  6/2/2021</t>
+          <t>6:17pm - 7:02pm  6/2/2021</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -858,12 +858,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3:53pm - 4:28pm  5/2/2021</t>
+          <t>3:37pm - 4:10pm  5/2/2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -875,17 +875,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5:50pm - 6:30pm  5/2/2021</t>
+          <t>4:30pm - 6:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -897,17 +897,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  6/2/2021</t>
+          <t>3:53pm - 4:28pm  5/2/2021</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -919,17 +919,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Taylors Lakes</t>
+          <t>Sunshine</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1:00pm - 1:52pm  6/2/2021</t>
+          <t>5:50pm - 6:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -941,20 +941,64 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>6:50pm - 7:30pm  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Taylors Lakes</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1:00pm - 1:52pm  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>West Melbourne</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Kebab Kingz  438 Spencer St  West Melbourne, VIC 3003</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>11:24pm -12:15am  29/1/2021</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Case dined outside</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1:30pm-2:45pm 9/2/2021</t>
+          <t>1:30pm-2:15pm 9/2/2021</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -594,56 +594,56 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Exford Hotel  199 Russell St  Melbourne, VIC 3000</t>
+          <t>Brunetti: Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:00pm - 11:35pm  29/1/2021</t>
+          <t>4:45am - 1:15pm, 9/2/2021</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended bottle shop</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Moorabbin Airport</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+          <t>Exford Hotel  199 Russell St  Melbourne, VIC 3000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5:00pm - 5:45pm  1/2/2021</t>
+          <t>11:00pm - 11:35pm  29/1/2021</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case attended bottle shop</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Noble Park</t>
+          <t>Moorabbin Airport</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
+          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2:36pm -3:30pm  30/01/2021</t>
+          <t>5:00pm - 5:45pm  1/2/2021</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -655,17 +655,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Noble Park</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
+          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:30am - 12:15pm  1/2/2021</t>
+          <t>2:36pm -3:30pm  30/01/2021</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -682,12 +682,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
+          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5:00pm - 6:00pm  31/1/2021</t>
+          <t>11:30am - 12:15pm  1/2/2021</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
+          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  1/2/2021</t>
+          <t>5:00pm - 6:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -726,12 +726,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
+          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6:30pm - 7:30pm  1/2/2021</t>
+          <t>6:50pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -743,17 +743,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3:45pm - 4:23pm  5/2/2021</t>
+          <t>6:30pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -770,12 +770,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3:57pm - 4:30pm  5/2/2021</t>
+          <t>3:45pm - 4:23pm  5/2/2021</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -792,12 +792,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3:40pm - 4:15pm  5/2/2021</t>
+          <t>3:57pm - 4:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5:44pm - 6:19pm  7/2/2021</t>
+          <t>3:40pm - 4:15pm  5/2/2021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6:17pm - 7:02pm  6/2/2021</t>
+          <t>5:44pm - 6:19pm  7/2/2021</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -858,12 +858,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3:37pm - 4:10pm  5/2/2021</t>
+          <t>6:17pm - 7:02pm  6/2/2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -880,12 +880,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4:30pm - 6:30pm  6/2/2021</t>
+          <t>3:37pm - 4:10pm  5/2/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3:53pm - 4:28pm  5/2/2021</t>
+          <t>4:30pm - 6:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -919,17 +919,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5:50pm - 6:30pm  5/2/2021</t>
+          <t>3:53pm - 4:28pm  5/2/2021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  6/2/2021</t>
+          <t>5:50pm - 6:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -963,17 +963,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Taylors Lakes</t>
+          <t>Sunshine</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1:00pm - 1:52pm  6/2/2021</t>
+          <t>6:50pm - 7:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -985,20 +985,42 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Taylors Lakes</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1:00pm - 1:52pm  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>West Melbourne</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Kebab Kingz  438 Spencer St  West Melbourne, VIC 3003</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>11:24pm -12:15am  29/1/2021</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Case dined outside</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1:30pm-2:15pm 9/2/2021</t>
+          <t>1:30pm-2:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -633,17 +633,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Moorabbin Airport</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+          <t>Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5:00pm - 5:45pm  1/2/2021</t>
+          <t>4:45am - 2:00pm  9/2/2021</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -655,17 +655,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Noble Park</t>
+          <t>Moorabbin Airport</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
+          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2:36pm -3:30pm  30/01/2021</t>
+          <t>5:00pm - 5:45pm  1/2/2021</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -677,17 +677,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Noble Park</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
+          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:30am - 12:15pm  1/2/2021</t>
+          <t>2:36pm -3:30pm  30/01/2021</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
+          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5:00pm - 6:00pm  31/1/2021</t>
+          <t>11:30am - 12:15pm  1/2/2021</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -726,12 +726,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
+          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  1/2/2021</t>
+          <t>5:00pm - 6:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
+          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6:30pm - 7:30pm  1/2/2021</t>
+          <t>6:50pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -765,17 +765,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3:45pm - 4:23pm  5/2/2021</t>
+          <t>6:30pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -792,12 +792,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3:57pm - 4:30pm  5/2/2021</t>
+          <t>3:45pm - 4:23pm  5/2/2021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3:40pm - 4:15pm  5/2/2021</t>
+          <t>3:57pm - 4:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5:44pm - 6:19pm  7/2/2021</t>
+          <t>3:40pm - 4:15pm  5/2/2021</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6:17pm - 7:02pm  6/2/2021</t>
+          <t>5:44pm - 6:19pm  7/2/2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -880,12 +880,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3:37pm - 4:10pm  5/2/2021</t>
+          <t>6:17pm - 7:02pm  6/2/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4:30pm - 6:30pm  6/2/2021</t>
+          <t>3:37pm - 4:10pm  5/2/2021</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -924,12 +924,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3:53pm - 4:28pm  5/2/2021</t>
+          <t>4:30pm - 6:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -941,17 +941,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5:50pm - 6:30pm  5/2/2021</t>
+          <t>3:53pm - 4:28pm  5/2/2021</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  6/2/2021</t>
+          <t>5:50pm - 6:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -985,17 +985,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Taylors Lakes</t>
+          <t>Sunshine</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1:00pm - 1:52pm  6/2/2021</t>
+          <t>6:50pm - 7:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1007,20 +1007,42 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Taylors Lakes</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1:00pm - 1:52pm  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>West Melbourne</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Kebab Kingz  438 Spencer St  West Melbourne, VIC 3003</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>11:24pm -12:15am  29/1/2021</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Case dined outside</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,39 +435,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clayton South</t>
+          <t>Broadmeadows</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nakama Workshop  85 Main Rd  Clayton South, VIC 3169</t>
+          <t>Craigieburn Line train</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:15am - 12:00pm  1/2/2021</t>
+          <t>1.25pm - 1.59pm  9/02/2012</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Clayton South</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Commonwealth Bank, 28-32 Kingsway, Glen Waverley</t>
+          <t>Nakama Workshop  85 Main Rd  Clayton South, VIC 3169</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1:30pm-2:30pm 9/2/2021</t>
+          <t>11:15am - 12:00pm  1/2/2021</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -479,17 +479,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Coburg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HSBC Bank, 38 Kingsway, Glen Waverley</t>
+          <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2:15pm-3:30pm 9/2/2021</t>
+          <t>7:14pm  11:30pm  6/02/2021</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -501,17 +501,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Heatherton</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
+          <t>Commonwealth Bank, 28-32 Kingsway, Glen Waverley</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5:19pm - 6:35pm  1/2/2021</t>
+          <t>1:30pm-2:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -523,17 +523,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough, VIC 3173</t>
+          <t>HSBC Bank, 38 Kingsway, Glen Waverley</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00pm - 11:15pm  30/1/2021</t>
+          <t>2:15pm-3:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -545,39 +545,39 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>Glenroy</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough, VIC 3173</t>
+          <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4:00pm - 5:00pm  31/1/2021</t>
+          <t>1.35pm  2.17pm  9/02/2021</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Maidstone</t>
+          <t>Heatherton</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
+          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9:45am - 10:25am  5/2/2021</t>
+          <t>5:19pm - 6:35pm  1/2/2021</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -589,17 +589,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hoppers Crossing</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brunetti: Terminal 4, Melbourne Airport</t>
+          <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing, VIC 3029</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4:45am - 1:15pm, 9/2/2021</t>
+          <t>6.40am - 7.15am  8/02/21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -611,39 +611,39 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hoppers Crossing</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Exford Hotel  199 Russell St  Melbourne, VIC 3000</t>
+          <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing, VIC 3029</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:00pm - 11:35pm  29/1/2021</t>
+          <t>6.45am - 7.30am  8/02/21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case attended bottle shop</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Terminal 4, Melbourne Airport</t>
+          <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough, VIC 3173</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4:45am - 2:00pm  9/2/2021</t>
+          <t>10:00pm - 11:15pm  30/1/2021</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -655,17 +655,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Moorabbin Airport</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+          <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough, VIC 3173</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5:00pm - 5:45pm  1/2/2021</t>
+          <t>4:00pm - 5:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -677,17 +677,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Noble Park</t>
+          <t>Maidstone</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
+          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2:36pm -3:30pm  30/01/2021</t>
+          <t>9:45am - 10:25am  5/2/2021</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -699,39 +699,39 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
+          <t>901 Frankston to Melbourne Airport bus route  Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11:30am - 12:15pm  1/2/2021</t>
+          <t>1:02pm  1:49pm  9/2/2021</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught but from Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
+          <t>Brunetti: Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5:00pm - 6:00pm  31/1/2021</t>
+          <t>4:45am - 1:15pm  9/2/2021</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -743,39 +743,39 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
+          <t>Exford Hotel  199 Russell St  Melbourne, VIC 3000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  1/2/2021</t>
+          <t>11:00pm - 11:35pm  29/1/2021</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case attended bottle shop</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
+          <t>Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6:30pm - 7:30pm  1/2/2021</t>
+          <t>4:45am - 2:00pm  9/2/2021</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -787,17 +787,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Moorabbin Airport</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3:45pm - 4:23pm  5/2/2021</t>
+          <t>5:00pm - 5:45pm  1/2/2021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -809,17 +809,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Noble Park</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3:57pm - 4:30pm  5/2/2021</t>
+          <t>2:36pm -3:30pm  30/01/2021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -831,39 +831,35 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>South Melbourne</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Stowe Australia  67  69 Buckhurst St  South Melbourne VIC 3205</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3:40pm - 4:15pm  5/2/2021</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
+          <t>10.30am - 10.45am 8/02/2021</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5:44pm - 6:19pm  7/2/2021</t>
+          <t>11:30am - 12:15pm  1/2/2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -875,17 +871,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6:17pm - 7:02pm  6/2/2021</t>
+          <t>5:00pm - 6:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -897,17 +893,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
+          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3:37pm - 4:10pm  5/2/2021</t>
+          <t>6:50pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -919,17 +915,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4:30pm - 6:30pm  6/2/2021</t>
+          <t>6:30pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -946,12 +942,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3:53pm - 4:28pm  5/2/2021</t>
+          <t>3:45pm - 4:23pm  5/2/2021</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -963,17 +959,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5:50pm - 6:30pm  5/2/2021</t>
+          <t>3:57pm - 4:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -985,17 +981,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  6/2/2021</t>
+          <t>3:40pm - 4:15pm  5/2/2021</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1007,17 +1003,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Taylors Lakes</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1:00pm - 1:52pm  6/2/2021</t>
+          <t>5:44pm - 6:19pm  7/2/2021</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1029,20 +1025,174 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Sunbury</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>6:17pm - 7:02pm  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sunbury</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3:37pm - 4:10pm  5/2/2021</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sunbury</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4:30pm - 6:30pm  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sunbury</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3:53pm - 4:28pm  5/2/2021</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5:50pm - 6:30pm  5/2/2021</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>6:50pm - 7:30pm  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Taylors Lakes</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1:00pm - 1:52pm  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>West Melbourne</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Kebab Kingz  438 Spencer St  West Melbourne, VIC 3003</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>11:24pm -12:15am  29/1/2021</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Case dined outside</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,7 +714,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case caught but from Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
     </row>
@@ -748,34 +748,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Exford Hotel  199 Russell St  Melbourne, VIC 3000</t>
+          <t>Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11:00pm - 11:35pm  29/1/2021</t>
+          <t>4:45am - 2:00pm  9/2/2021</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case attended bottle shop</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Moorabbin Airport</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Terminal 4, Melbourne Airport</t>
+          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4:45am - 2:00pm  9/2/2021</t>
+          <t>5:00pm - 5:45pm  1/2/2021</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -787,17 +787,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Moorabbin Airport</t>
+          <t>Noble Park</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5:00pm - 5:45pm  1/2/2021</t>
+          <t>2:36pm -3:30pm  30/01/2021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -809,17 +809,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Noble Park</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
+          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2:36pm -3:30pm  30/01/2021</t>
+          <t>11:30am - 12:15pm  1/2/2021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -831,20 +831,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>South Melbourne</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Stowe Australia  67  69 Buckhurst St  South Melbourne VIC 3205</t>
+          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10.30am - 10.45am 8/02/2021</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>5:00pm - 6:00pm  31/1/2021</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -854,12 +858,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
+          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11:30am - 12:15pm  1/2/2021</t>
+          <t>6:50pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -876,12 +880,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
+          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5:00pm - 6:00pm  31/1/2021</t>
+          <t>6:30pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -893,17 +897,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
+          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  1/2/2021</t>
+          <t>3:45pm - 4:23pm  5/2/2021</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -915,17 +919,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
+          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6:30pm - 7:30pm  1/2/2021</t>
+          <t>3:57pm - 4:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -942,12 +946,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3:45pm - 4:23pm  5/2/2021</t>
+          <t>3:40pm - 4:15pm  5/2/2021</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -964,12 +968,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3:57pm - 4:30pm  5/2/2021</t>
+          <t>5:44pm - 6:19pm  7/2/2021</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -986,12 +990,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3:40pm - 4:15pm  5/2/2021</t>
+          <t>6:17pm - 7:02pm  6/2/2021</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1008,12 +1012,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5:44pm - 6:19pm  7/2/2021</t>
+          <t>3:37pm - 4:10pm  5/2/2021</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1030,12 +1034,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6:17pm - 7:02pm  6/2/2021</t>
+          <t>4:30pm - 6:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1052,12 +1056,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
+          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3:37pm - 4:10pm  5/2/2021</t>
+          <t>3:53pm - 4:28pm  5/2/2021</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1069,17 +1073,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Sunshine</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4:30pm - 6:30pm  6/2/2021</t>
+          <t>5:50pm - 6:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1091,17 +1095,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Sunshine</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3:53pm - 4:28pm  5/2/2021</t>
+          <t>6:50pm - 7:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1113,88 +1117,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Taylors Lakes</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5:50pm - 6:30pm  5/2/2021</t>
+          <t>1:00pm - 1:52pm  6/2/2021</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Sunshine</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>6:50pm - 7:30pm  6/2/2021</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Taylors Lakes</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1:00pm - 1:52pm  6/2/2021</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>West Melbourne</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Kebab Kingz  438 Spencer St  West Melbourne, VIC 3003</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>11:24pm -12:15am  29/1/2021</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Case dined outside</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,127 +391,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brandon Park</t>
+          <t>Albert Park</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kmart, Brandon Park Shopping Centre  Cnr Springvale Rd and Ferntree Gully Rd  Brandon Park, VIC 3170</t>
+          <t>Alberton Cafe  198 Bridport St  Albert Park VIC 3206</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4:35pm - 5:10pm  31/1/2021</t>
+          <t>8:50am - 10:10am  9/2/2021</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case dined at venue</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Albert Park</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>North Point Cafe  2B North Rd  Brighton, VIC 3186</t>
+          <t>Alberton Cafe  198 Bridport St  Albert Park VIC 3206</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8:10am - 9:30am  31/1/2021</t>
+          <t>9:00am - 10:50am  11/2/2021</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case dined outside and used bathroom</t>
+          <t>Case dined at venue</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Broadmeadows</t>
+          <t>Brandon Park</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Craigieburn Line train</t>
+          <t>Kmart, Brandon Park Shopping Centre  Cnr Springvale Rd and Ferntree Gully Rd  Brandon Park VIC 3170</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.25pm - 1.59pm  9/02/2012</t>
+          <t>4:35pm - 5:10pm  31/1/2021</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Clayton South</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nakama Workshop  85 Main Rd  Clayton South, VIC 3169</t>
+          <t>North Point Cafe  2B North Rd  Brighton, VIC 3186</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:15am - 12:00pm  1/2/2021</t>
+          <t>8:10am - 9:30am  31/1/2021</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case dined outside and used bathroom</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Coburg</t>
+          <t>Broadmeadows</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
+          <t>Craigieburn Line train</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7:14pm  11:30pm  6/02/2021</t>
+          <t>1.25pm - 1.59pm  9/02/2012</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Clayton South</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Commonwealth Bank, 28-32 Kingsway, Glen Waverley</t>
+          <t>Nakama Workshop  85 Main Rd  Clayton South VIC 3169</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1:30pm-2:30pm 9/2/2021</t>
+          <t>11:15am - 12:00pm  1/2/2021</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -523,17 +523,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Coburg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HSBC Bank, 38 Kingsway, Glen Waverley</t>
+          <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2:15pm-3:30pm 9/2/2021</t>
+          <t>7:14pm  11:30pm  6/02/2021</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -545,39 +545,39 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Glenroy</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
+          <t>Commonwealth Bank, 28-32 Kingsway  Glen Waverley VIC 3015</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.35pm  2.17pm  9/02/2021</t>
+          <t>1:30pm-2:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Heatherton</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
+          <t>HSBC Bank, 38 Kingsway  Glen Waverley VIC 3015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5:19pm - 6:35pm  1/2/2021</t>
+          <t>2:15pm-3:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -589,39 +589,39 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hoppers Crossing</t>
+          <t>Glenroy</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing, VIC 3029</t>
+          <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6.40am - 7.15am  8/02/21</t>
+          <t>1.35pm  2.17pm  9/02/2021</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hoppers Crossing</t>
+          <t>Heatherton</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing, VIC 3029</t>
+          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.45am - 7.30am  8/02/21</t>
+          <t>5:19pm - 6:35pm  1/2/2021</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -633,17 +633,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>Hoppers Crossing</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough, VIC 3173</t>
+          <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10:00pm - 11:15pm  30/1/2021</t>
+          <t>6.40am - 7.15am  8/02/21</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -655,17 +655,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>Hoppers Crossing</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough, VIC 3173</t>
+          <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4:00pm - 5:00pm  31/1/2021</t>
+          <t>6.45am - 7.30am  8/02/21</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -677,17 +677,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Maidstone</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
+          <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough VIC 3173</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9:45am - 10:25am  5/2/2021</t>
+          <t>10:00pm - 11:15pm  30/1/2021</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -699,39 +699,39 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>901 Frankston to Melbourne Airport bus route  Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough VIC 3173</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1:02pm  1:49pm  9/2/2021</t>
+          <t>4:00pm - 5:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Maidstone</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Brunetti: Terminal 4, Melbourne Airport</t>
+          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4:45am - 1:15pm  9/2/2021</t>
+          <t>9:45am - 10:25am  5/2/2021</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -748,34 +748,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Terminal 4, Melbourne Airport</t>
+          <t>901 Frankston to Melbourne Airport bus route  Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4:45am - 2:00pm  9/2/2021</t>
+          <t>1:02pm  1:49pm  9/2/2021</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Moorabbin Airport</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+          <t>Brunetti: Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5:00pm - 5:45pm  1/2/2021</t>
+          <t>4:45am - 1:15pm  9/2/2021</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -787,17 +787,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Noble Park</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
+          <t>Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2:36pm -3:30pm  30/01/2021</t>
+          <t>4:45am - 2:00pm  9/2/2021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -809,17 +809,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Moorabbin Airport</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
+          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11:30am - 12:15pm  1/2/2021</t>
+          <t>5:00pm - 5:45pm  1/2/2021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -831,17 +831,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Noble Park</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
+          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5:00pm - 6:00pm  31/1/2021</t>
+          <t>2:36pm -3:30pm  30/01/2021</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -853,17 +853,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Point Cook</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
+          <t>The Coffeeologist Cafe  70/300 Point Cook Rd Point Cook VIC 3030</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  1/2/2021</t>
+          <t>11:00am - 11:40am  8/2/2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -875,17 +875,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Point Cook</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
+          <t>The Coffeeologist Cafe  70/300 Point Cook Rd Point Cook VIC 3030</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6:30pm - 7:30pm  1/2/2021</t>
+          <t>11:30am - 12:10pm  10/2/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -897,17 +897,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3:45pm - 4:23pm  5/2/2021</t>
+          <t>11:30am - 12:15pm  1/2/2021</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -919,17 +919,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Coles Springvale  825 Dandenong Rd  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3:57pm - 4:30pm  5/2/2021</t>
+          <t>5:00pm - 6:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -941,17 +941,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3:40pm - 4:15pm  5/2/2021</t>
+          <t>6:50pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -963,17 +963,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5:44pm - 6:19pm  7/2/2021</t>
+          <t>6:30pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -990,12 +990,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6:17pm - 7:02pm  6/2/2021</t>
+          <t>3:45pm - 4:23pm  5/2/2021</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
+          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3:37pm - 4:10pm  5/2/2021</t>
+          <t>3:57pm - 4:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4:30pm - 6:30pm  6/2/2021</t>
+          <t>3:40pm - 4:15pm  5/2/2021</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3:53pm - 4:28pm  5/2/2021</t>
+          <t>5:44pm - 6:19pm  7/2/2021</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1073,17 +1073,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5:50pm - 6:30pm  5/2/2021</t>
+          <t>6:17pm - 7:02pm  6/2/2021</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1095,17 +1095,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  6/2/2021</t>
+          <t>3:37pm - 4:10pm  5/2/2021</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1117,20 +1117,108 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Sunbury</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4:30pm - 6:30pm  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sunbury</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3:53pm - 4:28pm  5/2/2021</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5:50pm - 6:30pm  5/2/2021</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>6:50pm - 7:30pm  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Taylors Lakes</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>1:00pm - 1:52pm  6/2/2021</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Case attended venue</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9:00am - 10:50am  11/2/2021</t>
+          <t>9:00am - 10:15am  11/2/2021</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -743,12 +743,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Melbourne Airport</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>901 Frankston to Melbourne Airport bus route  Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>901 Frankston to Melbourne Airport bus route:  Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Melbourne Airport</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -787,7 +787,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Melbourne Airport</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -853,17 +853,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Point Cook</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The Coffeeologist Cafe  70/300 Point Cook Rd Point Cook VIC 3030</t>
+          <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11:00am - 11:40am  8/2/2021</t>
+          <t>11:30am - 12:15pm  1/2/2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -875,17 +875,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Point Cook</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The Coffeeologist Cafe  70/300 Point Cook Rd Point Cook VIC 3030</t>
+          <t>Coles Springvale  825 Dandenong Rd  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>11:30am - 12:10pm  10/2/2021</t>
+          <t>5:00pm - 6:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
+          <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>11:30am - 12:15pm  1/2/2021</t>
+          <t>6:50pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -924,12 +924,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Coles Springvale  825 Dandenong Rd  Springvale VIC 3171</t>
+          <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5:00pm - 6:00pm  31/1/2021</t>
+          <t>6:30pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -941,17 +941,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
+          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  1/2/2021</t>
+          <t>3:45pm - 4:23pm  5/2/2021</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -963,17 +963,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
+          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6:30pm - 7:30pm  1/2/2021</t>
+          <t>3:57pm - 4:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -990,12 +990,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3:45pm - 4:23pm  5/2/2021</t>
+          <t>3:40pm - 4:15pm  5/2/2021</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3:57pm - 4:30pm  5/2/2021</t>
+          <t>5:44pm - 6:19pm  7/2/2021</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3:40pm - 4:15pm  5/2/2021</t>
+          <t>6:17pm - 7:02pm  6/2/2021</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5:44pm - 6:19pm  7/2/2021</t>
+          <t>3:37pm - 4:10pm  5/2/2021</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>6:17pm - 7:02pm  6/2/2021</t>
+          <t>4:30pm - 6:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
+          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3:37pm - 4:10pm  5/2/2021</t>
+          <t>3:53pm - 4:28pm  5/2/2021</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1117,17 +1117,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Sunshine</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4:30pm - 6:30pm  6/2/2021</t>
+          <t>5:50pm - 6:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1139,17 +1139,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Sunshine</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3:53pm - 4:28pm  5/2/2021</t>
+          <t>6:50pm - 7:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1161,64 +1161,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Taylors Lakes</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5:50pm - 6:30pm  5/2/2021</t>
+          <t>1:00pm - 1:52pm  6/2/2021</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Sunshine</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>6:50pm - 7:30pm  6/2/2021</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Taylors Lakes</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1:00pm - 1:52pm  6/2/2021</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
         <is>
           <t>Case attended venue</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.25pm - 1.59pm  9/02/2012</t>
+          <t>1.25pm - 1.59pm  9/02/2021</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -501,17 +501,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Clayton South</t>
+          <t>Broadmeadows</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nakama Workshop  85 Main Rd  Clayton South VIC 3169</t>
+          <t>Ferguson Plarre Bakehouses - Broadmeadows, 1099-1169 Pascoe Vale Road</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:15am - 12:00pm  1/2/2021</t>
+          <t>12:30pm - 12:45pm 9/2/2021</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -523,17 +523,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Coburg</t>
+          <t>Broadmeadows</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
+          <t>Woolworths Broadmeadows Central, Pascoe Vale Road</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7:14pm  11:30pm  6/02/2021</t>
+          <t>12.15pm - 12:30 pm 9/2/2021</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -545,17 +545,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Clayton South</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Commonwealth Bank, 28-32 Kingsway  Glen Waverley VIC 3015</t>
+          <t>Nakama Workshop  85 Main Rd  Clayton South VIC 3169</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1:30pm-2:30pm 9/2/2021</t>
+          <t>11:15am - 12:00pm  1/2/2021</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -567,17 +567,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Coburg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HSBC Bank, 38 Kingsway  Glen Waverley VIC 3015</t>
+          <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2:15pm-3:30pm 9/2/2021</t>
+          <t>7:14pm  11:30pm  6/02/2021</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -589,39 +589,39 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Glenroy</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
+          <t>Commonwealth Bank, 28-32 Kingsway  Glen Waverley VIC 3015</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.35pm  2.17pm  9/02/2021</t>
+          <t>1:30pm-2:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Heatherton</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
+          <t>HSBC Bank, 38 Kingsway  Glen Waverley VIC 3015</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5:19pm - 6:35pm  1/2/2021</t>
+          <t>2:15pm-3:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -633,39 +633,39 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hoppers Crossing</t>
+          <t>Glenroy</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing VIC 3029</t>
+          <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6.40am - 7.15am  8/02/21</t>
+          <t>1.35pm  2.17pm  9/02/2021</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hoppers Crossing</t>
+          <t>Heatherton</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
+          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6.45am - 7.30am  8/02/21</t>
+          <t>5:19pm - 6:35pm  1/2/2021</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -677,17 +677,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>Hoppers Crossing</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough VIC 3173</t>
+          <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10:00pm - 11:15pm  30/1/2021</t>
+          <t>6.40am - 7.15am  8/02/21</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -699,17 +699,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>Hoppers Crossing</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough VIC 3173</t>
+          <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4:00pm - 5:00pm  31/1/2021</t>
+          <t>6.45am - 7.30am  8/02/21</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -721,17 +721,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Maidstone</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
+          <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough VIC 3173</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9:45am - 10:25am  5/2/2021</t>
+          <t>4:00pm - 5:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -743,22 +743,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Melbourne Airport</t>
+          <t>Maidstone</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>901 Frankston to Melbourne Airport bus route:  Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1:02pm  1:49pm  9/2/2021</t>
+          <t>9:45am - 10:25am  5/2/2021</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
@@ -770,17 +770,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Brunetti: Terminal 4, Melbourne Airport</t>
+          <t>901 Frankston to Melbourne Airport bus route:  Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4:45am - 1:15pm  9/2/2021</t>
+          <t>1:02pm  1:49pm  9/2/2021</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
     </row>
@@ -792,12 +792,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Terminal 4, Melbourne Airport</t>
+          <t>Brunetti: Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4:45am - 2:00pm  9/2/2021</t>
+          <t>4:45am - 1:15pm  9/2/2021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -809,17 +809,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Moorabbin Airport</t>
+          <t>Melbourne Airport</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+          <t>Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5:00pm - 5:45pm  1/2/2021</t>
+          <t>4:45am - 2:00pm  9/2/2021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -831,17 +831,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Noble Park</t>
+          <t>Moorabbin Airport</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
+          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2:36pm -3:30pm  30/01/2021</t>
+          <t>5:00pm - 5:45pm  1/2/2021</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -853,17 +853,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Pascoe Vale</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
+          <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11:30am - 12:15pm  1/2/2021</t>
+          <t>5pm - 6pm 8/2/2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -875,17 +875,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Pascoe Vale</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Coles Springvale  825 Dandenong Rd  Springvale VIC 3171</t>
+          <t>Oak Park Sports and Aquatic Centre, 563a Pascoe Vale Road</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5:00pm - 6:00pm  31/1/2021</t>
+          <t>4pm - 7.30pm 10/2/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
+          <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  1/2/2021</t>
+          <t>11:30am - 12:15pm  1/2/2021</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -924,12 +924,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
+          <t>Coles Springvale  825 Dandenong Rd  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6:30pm - 7:30pm  1/2/2021</t>
+          <t>5:00pm - 6:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -941,17 +941,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3:45pm - 4:23pm  5/2/2021</t>
+          <t>6:50pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -963,17 +963,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3:57pm - 4:30pm  5/2/2021</t>
+          <t>6:30pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -990,12 +990,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3:40pm - 4:15pm  5/2/2021</t>
+          <t>3:45pm - 4:23pm  5/2/2021</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5:44pm - 6:19pm  7/2/2021</t>
+          <t>3:57pm - 4:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6:17pm - 7:02pm  6/2/2021</t>
+          <t>3:40pm - 4:15pm  5/2/2021</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3:37pm - 4:10pm  5/2/2021</t>
+          <t>5:44pm - 6:19pm  7/2/2021</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4:30pm - 6:30pm  6/2/2021</t>
+          <t>6:17pm - 7:02pm  6/2/2021</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3:53pm - 4:28pm  5/2/2021</t>
+          <t>3:37pm - 4:10pm  5/2/2021</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1117,17 +1117,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5:50pm - 6:30pm  5/2/2021</t>
+          <t>4:30pm - 6:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1139,17 +1139,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  6/2/2021</t>
+          <t>3:53pm - 4:28pm  5/2/2021</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1161,20 +1161,64 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5:50pm - 6:30pm  5/2/2021</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>6:50pm - 7:30pm  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Taylors Lakes</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>1:00pm - 1:52pm  6/2/2021</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Case attended venue</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,12 +682,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing VIC 3029</t>
+          <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6.40am - 7.15am  8/02/21</t>
+          <t>6.45am - 7.30am  8/02/21</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -699,17 +699,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hoppers Crossing</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
+          <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough VIC 3173</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6.45am - 7.30am  8/02/21</t>
+          <t>4:00pm - 5:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -721,17 +721,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>Maidstone</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough VIC 3173</t>
+          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4:00pm - 5:00pm  31/1/2021</t>
+          <t>9:45am - 10:25am  5/2/2021</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -743,127 +743,127 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Maidstone</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
+          <t>Queen Victoria Market  Queen Street  Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9:45am - 10:25am  5/2/2021</t>
+          <t>8:25am - 10:10am  11/2/2021</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case attended Section 2 - Fruit and Vegetables, and used Section 2 female toilets. See a map of the Queen Victoria Market (PDF)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Melbourne Airport</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>901 Frankston to Melbourne Airport bus route:  Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>Yarra Trams - No. 11</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1:02pm  1:49pm  9/2/2021</t>
+          <t>7:55am - 8:10am  11/2/2021</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>Case used tram no. 11  Start: D16- Harbour Esplanade/ Collins Street  Finish: William Street/ Collins Street #3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Melbourne Airport</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Brunetti: Terminal 4, Melbourne Airport</t>
+          <t>Yarra Trams - No. 58</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4:45am - 1:15pm  9/2/2021</t>
+          <t>8:10am - 8:25am  11/2/2021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case used tram no. 58  Start: Bourke Street/ William Street #5  Finish: Queen Victoria Market/ Peel Street #9</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Melbourne Airport</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Terminal 4, Melbourne Airport</t>
+          <t>Yarra Trams - No. 58</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4:45am - 2:00pm  9/2/2021</t>
+          <t>9:40am - 9:55am  11/2/2021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case used tram no. 58  Start: Queen Victoria Market/Peel Street #9  Finish: Bourke Street/ William Street #5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Moorabbin Airport</t>
+          <t>Melbourne Airport</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+          <t>901 Frankston to Melbourne Airport bus route:  Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5:00pm - 5:45pm  1/2/2021</t>
+          <t>1:02pm  1:49pm  9/2/2021</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pascoe Vale</t>
+          <t>Melbourne Airport</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
+          <t>Brunetti: Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5pm - 6pm 8/2/2021</t>
+          <t>4:45am - 1:15pm  9/2/2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -875,17 +875,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pascoe Vale</t>
+          <t>Melbourne Airport</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Oak Park Sports and Aquatic Centre, 563a Pascoe Vale Road</t>
+          <t>Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4pm - 7.30pm 10/2/2021</t>
+          <t>4:45am - 2:00pm  9/2/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -897,17 +897,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Moorabbin Airport</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
+          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>11:30am - 12:15pm  1/2/2021</t>
+          <t>5:00pm - 5:45pm  1/2/2021</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -919,17 +919,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Pascoe Vale</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Coles Springvale  825 Dandenong Rd  Springvale VIC 3171</t>
+          <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5:00pm - 6:00pm  31/1/2021</t>
+          <t>5pm - 6pm 8/2/2021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -941,17 +941,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Pascoe Vale</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
+          <t>Oak Park Sports and Aquatic Centre, 563a Pascoe Vale Road</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  1/2/2021</t>
+          <t>4pm - 7.30pm 10/2/2021</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
+          <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6:30pm - 7:30pm  1/2/2021</t>
+          <t>11:30am - 12:15pm  1/2/2021</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -985,17 +985,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Coles Springvale  825 Dandenong Rd  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3:45pm - 4:23pm  5/2/2021</t>
+          <t>5:00pm - 6:00pm  31/1/2021</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1007,17 +1007,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3:57pm - 4:30pm  5/2/2021</t>
+          <t>6:50pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1029,17 +1029,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3:40pm - 4:15pm  5/2/2021</t>
+          <t>6:30pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5:44pm - 6:19pm  7/2/2021</t>
+          <t>3:45pm - 4:23pm  5/2/2021</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>6:17pm - 7:02pm  6/2/2021</t>
+          <t>3:57pm - 4:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
+          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3:37pm - 4:10pm  5/2/2021</t>
+          <t>3:40pm - 4:15pm  5/2/2021</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4:30pm - 6:30pm  6/2/2021</t>
+          <t>5:44pm - 6:19pm  7/2/2021</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3:53pm - 4:28pm  5/2/2021</t>
+          <t>6:17pm - 7:02pm  6/2/2021</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1161,17 +1161,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5:50pm - 6:30pm  5/2/2021</t>
+          <t>3:37pm - 4:10pm  5/2/2021</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1183,17 +1183,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  6/2/2021</t>
+          <t>4:30pm - 6:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1205,20 +1205,86 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Sunbury</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3:53pm - 4:28pm  5/2/2021</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5:50pm - 6:30pm  5/2/2021</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>6:50pm - 7:30pm  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>Taylors Lakes</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>1:00pm - 1:52pm  6/2/2021</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Case attended venue</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,44 +435,44 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brandon Park</t>
+          <t>Broadmeadows</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kmart, Brandon Park Shopping Centre  Cnr Springvale Rd and Ferntree Gully Rd  Brandon Park VIC 3170</t>
+          <t>Craigieburn Line train</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4:35pm - 5:10pm  31/1/2021</t>
+          <t>1.25pm - 1.59pm  9/02/2021</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Broadmeadows</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>North Point Cafe  2B North Rd  Brighton, VIC 3186</t>
+          <t>Ferguson Plarre Bakehouses - Broadmeadows, 1099-1169 Pascoe Vale Road</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8:10am - 9:30am  31/1/2021</t>
+          <t>12:30pm - 12:45pm 9/2/2021</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case dined outside and used bathroom</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
@@ -484,34 +484,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Craigieburn Line train</t>
+          <t>Woolworths Broadmeadows Central, Pascoe Vale Road</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.25pm - 1.59pm  9/02/2021</t>
+          <t>12.15pm - 12:30 pm 9/2/2021</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Broadmeadows</t>
+          <t>Clayton South</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ferguson Plarre Bakehouses - Broadmeadows, 1099-1169 Pascoe Vale Road</t>
+          <t>Nakama Workshop  85 Main Rd  Clayton South VIC 3169</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:30pm - 12:45pm 9/2/2021</t>
+          <t>11:15am - 12:00pm  1/2/2021</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -523,17 +523,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Broadmeadows</t>
+          <t>Coburg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Woolworths Broadmeadows Central, Pascoe Vale Road</t>
+          <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12.15pm - 12:30 pm 9/2/2021</t>
+          <t>7:14pm  11:30pm  6/02/2021</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -545,17 +545,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Clayton South</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nakama Workshop  85 Main Rd  Clayton South VIC 3169</t>
+          <t>Commonwealth Bank, 28-32 Kingsway  Glen Waverley VIC 3015</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:15am - 12:00pm  1/2/2021</t>
+          <t>1:30pm-2:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -567,17 +567,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Coburg</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
+          <t>HSBC Bank, 38 Kingsway  Glen Waverley VIC 3015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7:14pm  11:30pm  6/02/2021</t>
+          <t>2:15pm-3:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -589,39 +589,39 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Glenroy</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Commonwealth Bank, 28-32 Kingsway  Glen Waverley VIC 3015</t>
+          <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1:30pm-2:30pm 9/2/2021</t>
+          <t>1.35pm  2.17pm  9/02/2021</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Heatherton</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HSBC Bank, 38 Kingsway  Glen Waverley VIC 3015</t>
+          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2:15pm-3:30pm 9/2/2021</t>
+          <t>5:19pm - 6:35pm  1/2/2021</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -633,39 +633,39 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Glenroy</t>
+          <t>Hoppers Crossing</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
+          <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.35pm  2.17pm  9/02/2021</t>
+          <t>6.45am - 7.30am  8/02/21</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Heatherton</t>
+          <t>Maidstone</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
+          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5:19pm - 6:35pm  1/2/2021</t>
+          <t>9:45am - 10:25am  5/2/2021</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -677,66 +677,66 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hoppers Crossing</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
+          <t>Queen Victoria Market  Queen Street  Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6.45am - 7.30am  8/02/21</t>
+          <t>8:25am - 10:10am  11/2/2021</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case attended Section 2 - Fruit and Vegetables, and used Section 2 female toilets. See a map of the Queen Victoria Market (PDF)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough VIC 3173</t>
+          <t>Yarra Trams - No. 11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4:00pm - 5:00pm  31/1/2021</t>
+          <t>7:55am - 8:10am  11/2/2021</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case used tram no. 11  Start: D16- Harbour Esplanade/ Collins Street  Finish: William Street/ Collins Street #3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Maidstone</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
+          <t>Yarra Trams - No. 58</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9:45am - 10:25am  5/2/2021</t>
+          <t>8:10am - 8:25am  11/2/2021</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case used tram no. 58  Start: Bourke Street/ William Street #5  Finish: Queen Victoria Market/ Peel Street #9</t>
         </is>
       </c>
     </row>
@@ -748,122 +748,122 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Queen Victoria Market  Queen Street  Melbourne VIC 3000</t>
+          <t>Yarra Trams - No. 58</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8:25am - 10:10am  11/2/2021</t>
+          <t>9:40am - 9:55am  11/2/2021</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case attended Section 2 - Fruit and Vegetables, and used Section 2 female toilets. See a map of the Queen Victoria Market (PDF)</t>
+          <t>Case used tram no. 58  Start: Queen Victoria Market/Peel Street #9  Finish: Bourke Street/ William Street #5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Melbourne Airport</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Yarra Trams - No. 11</t>
+          <t>901 Frankston to Melbourne Airport bus route:  Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7:55am - 8:10am  11/2/2021</t>
+          <t>1:02pm  1:49pm  9/2/2021</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case used tram no. 11  Start: D16- Harbour Esplanade/ Collins Street  Finish: William Street/ Collins Street #3</t>
+          <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Melbourne Airport</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Yarra Trams - No. 58</t>
+          <t>Brunetti: Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8:10am - 8:25am  11/2/2021</t>
+          <t>4:45am - 1:15pm  9/2/2021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case used tram no. 58  Start: Bourke Street/ William Street #5  Finish: Queen Victoria Market/ Peel Street #9</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Melbourne Airport</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Yarra Trams - No. 58</t>
+          <t>Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9:40am - 9:55am  11/2/2021</t>
+          <t>4:45am - 2:00pm  9/2/2021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Case used tram no. 58  Start: Queen Victoria Market/Peel Street #9  Finish: Bourke Street/ William Street #5</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Melbourne Airport</t>
+          <t>Moorabbin Airport</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>901 Frankston to Melbourne Airport bus route:  Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1:02pm  1:49pm  9/2/2021</t>
+          <t>5:00pm - 5:45pm  1/2/2021</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Melbourne Airport</t>
+          <t>Pascoe Vale</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Brunetti: Terminal 4, Melbourne Airport</t>
+          <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4:45am - 1:15pm  9/2/2021</t>
+          <t>5pm - 6pm 8/2/2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -875,17 +875,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Melbourne Airport</t>
+          <t>Pascoe Vale</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Terminal 4, Melbourne Airport</t>
+          <t>Oak Park Sports and Aquatic Centre, 563a Pascoe Vale Road</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4:45am - 2:00pm  9/2/2021</t>
+          <t>4pm - 7.30pm 10/2/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -897,17 +897,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Moorabbin Airport</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+          <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5:00pm - 5:45pm  1/2/2021</t>
+          <t>11:30am - 12:15pm  1/2/2021</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -919,17 +919,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pascoe Vale</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
+          <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5pm - 6pm 8/2/2021</t>
+          <t>6:50pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -941,17 +941,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pascoe Vale</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Oak Park Sports and Aquatic Centre, 563a Pascoe Vale Road</t>
+          <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4pm - 7.30pm 10/2/2021</t>
+          <t>6:30pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -963,17 +963,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
+          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>11:30am - 12:15pm  1/2/2021</t>
+          <t>3:45pm - 4:23pm  5/2/2021</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -985,17 +985,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Coles Springvale  825 Dandenong Rd  Springvale VIC 3171</t>
+          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5:00pm - 6:00pm  31/1/2021</t>
+          <t>3:57pm - 4:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1007,17 +1007,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
+          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  1/2/2021</t>
+          <t>3:40pm - 4:15pm  5/2/2021</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1029,17 +1029,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6:30pm - 7:30pm  1/2/2021</t>
+          <t>5:44pm - 6:19pm  7/2/2021</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3:45pm - 4:23pm  5/2/2021</t>
+          <t>6:17pm - 7:02pm  6/2/2021</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3:57pm - 4:30pm  5/2/2021</t>
+          <t>3:37pm - 4:10pm  5/2/2021</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3:40pm - 4:15pm  5/2/2021</t>
+          <t>4:30pm - 6:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5:44pm - 6:19pm  7/2/2021</t>
+          <t>3:53pm - 4:28pm  5/2/2021</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1139,17 +1139,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Sunshine</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6:17pm - 7:02pm  6/2/2021</t>
+          <t>5:50pm - 6:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1161,17 +1161,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Sunshine</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3:37pm - 4:10pm  5/2/2021</t>
+          <t>6:50pm - 7:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1183,108 +1183,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Taylors Lakes</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4:30pm - 6:30pm  6/2/2021</t>
+          <t>1:00pm - 1:52pm  6/2/2021</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Sunbury</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>3:53pm - 4:28pm  5/2/2021</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Sunshine</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>5:50pm - 6:30pm  5/2/2021</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Sunshine</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>6:50pm - 7:30pm  6/2/2021</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Taylors Lakes</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1:00pm - 1:52pm  6/2/2021</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
         <is>
           <t>Case attended venue</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -440,17 +440,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Craigieburn Line train</t>
+          <t>BonBon Bakery  Shop G134, Broadmeadows Central  1099/1168 Pascoe Vale Road  Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.25pm - 1.59pm  9/02/2021</t>
+          <t>12:30pm - 12:45pm 9/2/2021</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
@@ -462,17 +462,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ferguson Plarre Bakehouses - Broadmeadows, 1099-1169 Pascoe Vale Road</t>
+          <t>Craigieburn Line train</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:30pm - 12:45pm 9/2/2021</t>
+          <t>1:25pm - 1:59pm  9/02/2021</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
         </is>
       </c>
     </row>
@@ -484,12 +484,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Woolworths Broadmeadows Central, Pascoe Vale Road</t>
+          <t>Woolworths  Broadmeadows Central  Pascoe Vale Road  Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12.15pm - 12:30 pm 9/2/2021</t>
+          <t>12:15pm - 12:30 pm 9/2/2021</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Commonwealth Bank, 28-32 Kingsway  Glen Waverley VIC 3015</t>
+          <t>Commonwealth Bank  28-32 Kingsway  Glen Waverley VIC 3015</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HSBC Bank, 38 Kingsway  Glen Waverley VIC 3015</t>
+          <t>HSBC Bank,  38 Kingsway  Glen Waverley VIC 3015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.35pm  2.17pm  9/02/2021</t>
+          <t>1:35pm  2:17pm  9/02/2021</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6.45am - 7.30am  8/02/21</t>
+          <t>6:45am - 7:30am  8/02/21</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4pm - 7.30pm 10/2/2021</t>
+          <t>4pm - 7:30pm 10/2/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1:25pm - 1:59pm  9/02/2021</t>
+          <t>1:25pm - 1:59pm  9/2/2021</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -484,34 +484,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Woolworths  Broadmeadows Central  Pascoe Vale Road  Broadmeadows VIC 3047</t>
+          <t>Sacca's Fruit World  Broadmeadows Central  Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:15pm - 12:30 pm 9/2/2021</t>
+          <t>12:30pm - 1:00pm  9/2/2021</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Clayton South</t>
+          <t>Broadmeadows</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nakama Workshop  85 Main Rd  Clayton South VIC 3169</t>
+          <t>Woolworths  Broadmeadows Central  Pascoe Vale Road  Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:15am - 12:00pm  1/2/2021</t>
+          <t>12:15pm - 12:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -523,17 +523,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Coburg</t>
+          <t>Clayton South</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
+          <t>Nakama Workshop  85 Main Rd  Clayton South VIC 3169</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7:14pm  11:30pm  6/02/2021</t>
+          <t>11:15am - 12:00pm  1/2/2021</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -545,17 +545,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Coburg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Commonwealth Bank  28-32 Kingsway  Glen Waverley VIC 3015</t>
+          <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1:30pm-2:30pm 9/2/2021</t>
+          <t>7:14pm  11:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HSBC Bank,  38 Kingsway  Glen Waverley VIC 3015</t>
+          <t>Commonwealth Bank  28-32 Kingsway  Glen Waverley VIC 3015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2:15pm-3:30pm 9/2/2021</t>
+          <t>1:30pm-2:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -589,61 +589,61 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Glenroy</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
+          <t>HSBC Bank,  38 Kingsway  Glen Waverley VIC 3015</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1:35pm  2:17pm  9/02/2021</t>
+          <t>2:15pm-3:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Heatherton</t>
+          <t>Glenroy</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
+          <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5:19pm - 6:35pm  1/2/2021</t>
+          <t>1:35pm  2:17pm  9/2/2021</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hoppers Crossing</t>
+          <t>Heatherton</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
+          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton VIC 3202</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6:45am - 7:30am  8/02/21</t>
+          <t>5:19pm - 6:35pm  1/2/2021</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -655,17 +655,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Maidstone</t>
+          <t>Hoppers Crossing</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
+          <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9:45am - 10:25am  5/2/2021</t>
+          <t>6:45am - 7:30am  8/2/21</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -677,22 +677,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Maidstone</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Queen Victoria Market  Queen Street  Melbourne VIC 3000</t>
+          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8:25am - 10:10am  11/2/2021</t>
+          <t>9:45am - 10:25am  5/2/2021</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case attended Section 2 - Fruit and Vegetables, and used Section 2 female toilets. See a map of the Queen Victoria Market (PDF)</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
@@ -704,17 +704,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Yarra Trams - No. 11</t>
+          <t>Queen Victoria Market  Queen Street  Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7:55am - 8:10am  11/2/2021</t>
+          <t>8:25am - 10:10am  11/2/2021</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case used tram no. 11  Start: D16- Harbour Esplanade/ Collins Street  Finish: William Street/ Collins Street #3</t>
+          <t>Case attended sheds A and B (also known as section 2) - Fruit and Vegetables, and used female toilets adjacent to shed A.  See a map of the Queen Victoria Market (PDF)</t>
         </is>
       </c>
     </row>
@@ -726,17 +726,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Yarra Trams - No. 58</t>
+          <t>Yarra Trams - No. 11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8:10am - 8:25am  11/2/2021</t>
+          <t>7:55am - 8:10am  11/2/2021</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case used tram no. 58  Start: Bourke Street/ William Street #5  Finish: Queen Victoria Market/ Peel Street #9</t>
+          <t>Case used tram no. 11  Start: D16- Harbour Esplanade/ Collins Street  Finish: William Street/ Collins Street #3</t>
         </is>
       </c>
     </row>
@@ -753,34 +753,34 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9:40am - 9:55am  11/2/2021</t>
+          <t>8:10am - 8:25am  11/2/2021</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case used tram no. 58  Start: Queen Victoria Market/Peel Street #9  Finish: Bourke Street/ William Street #5</t>
+          <t>Case used tram no. 58  Start: Bourke Street/ William Street #5  Finish: Queen Victoria Market/ Peel Street #9</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Melbourne Airport</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>901 Frankston to Melbourne Airport bus route:  Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>Yarra Trams - No. 58</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1:02pm  1:49pm  9/2/2021</t>
+          <t>9:40am - 9:55am  11/2/2021</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>Case used tram no. 58  Start: Queen Victoria Market/Peel Street #9  Finish: Bourke Street/ William Street #5</t>
         </is>
       </c>
     </row>
@@ -792,17 +792,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Brunetti: Terminal 4, Melbourne Airport</t>
+          <t>901 Frankston to Melbourne Airport bus route:  Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4:45am - 1:15pm  9/2/2021</t>
+          <t>1:02pm  1:49pm  9/2/2021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
     </row>
@@ -814,12 +814,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Terminal 4, Melbourne Airport</t>
+          <t>Brunetti: Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4:45am - 2:00pm  9/2/2021</t>
+          <t>4:45am - 1:15pm  9/2/2021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -831,17 +831,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Moorabbin Airport</t>
+          <t>Melbourne Airport</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+          <t>Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5:00pm - 5:45pm  1/2/2021</t>
+          <t>4:45am - 2:00pm  9/2/2021</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -853,17 +853,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pascoe Vale</t>
+          <t>Moorabbin Airport</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
+          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5pm - 6pm 8/2/2021</t>
+          <t>5:00pm - 5:45pm  1/2/2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -880,12 +880,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Oak Park Sports and Aquatic Centre, 563a Pascoe Vale Road</t>
+          <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4pm - 7:30pm 10/2/2021</t>
+          <t>5pm - 6pm 8/2/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -897,17 +897,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Pascoe Vale</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
+          <t>Oak Park Sports and Aquatic Centre, 563a Pascoe Vale Road</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>11:30am - 12:15pm  1/2/2021</t>
+          <t>4pm - 7:30pm 10/2/2021</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -924,12 +924,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
+          <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  1/2/2021</t>
+          <t>11:30am - 12:15pm  1/2/2021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
+          <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6:30pm - 7:30pm  1/2/2021</t>
+          <t>6:50pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -963,17 +963,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Springvale</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3:45pm - 4:23pm  5/2/2021</t>
+          <t>6:30pm - 7:30pm  1/2/2021</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -990,12 +990,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3:57pm - 4:30pm  5/2/2021</t>
+          <t>3:45pm - 4:23pm  5/2/2021</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3:40pm - 4:15pm  5/2/2021</t>
+          <t>3:57pm - 4:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5:44pm - 6:19pm  7/2/2021</t>
+          <t>3:40pm - 4:15pm  5/2/2021</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6:17pm - 7:02pm  6/2/2021</t>
+          <t>5:44pm - 6:19pm  7/2/2021</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3:37pm - 4:10pm  5/2/2021</t>
+          <t>6:17pm - 7:02pm  6/2/2021</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4:30pm - 6:30pm  6/2/2021</t>
+          <t>3:37pm - 4:10pm  5/2/2021</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3:53pm - 4:28pm  5/2/2021</t>
+          <t>4:30pm - 6:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1139,17 +1139,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sunshine</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5:50pm - 6:30pm  5/2/2021</t>
+          <t>3:53pm - 4:28pm  5/2/2021</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  6/2/2021</t>
+          <t>5:50pm - 6:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1183,20 +1183,42 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>6:50pm - 7:30pm  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Taylors Lakes</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>1:00pm - 1:52pm  6/2/2021</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Case attended venue</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,17 +523,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Clayton South</t>
+          <t>Coburg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nakama Workshop  85 Main Rd  Clayton South VIC 3169</t>
+          <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:15am - 12:00pm  1/2/2021</t>
+          <t>7:14pm  11:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -545,17 +545,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Coburg</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
+          <t>Commonwealth Bank  28-32 Kingsway  Glen Waverley VIC 3015</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7:14pm  11:30pm  6/2/2021</t>
+          <t>1:30pm-2:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Commonwealth Bank  28-32 Kingsway  Glen Waverley VIC 3015</t>
+          <t>HSBC Bank,  38 Kingsway  Glen Waverley VIC 3015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1:30pm-2:30pm 9/2/2021</t>
+          <t>2:15pm-3:30pm 9/2/2021</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -589,61 +589,61 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Glenroy</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HSBC Bank,  38 Kingsway  Glen Waverley VIC 3015</t>
+          <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2:15pm-3:30pm 9/2/2021</t>
+          <t>1:35pm  2:17pm  9/2/2021</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Glenroy</t>
+          <t>Hoppers Crossing</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
+          <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1:35pm  2:17pm  9/2/2021</t>
+          <t>6:45am - 7:30am  8/2/21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Heatherton</t>
+          <t>Maidstone</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton VIC 3202</t>
+          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5:19pm - 6:35pm  1/2/2021</t>
+          <t>9:45am - 10:25am  5/2/2021</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -655,44 +655,44 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hoppers Crossing</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
+          <t>Queen Victoria Market  Queen Street  Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6:45am - 7:30am  8/2/21</t>
+          <t>8:25am - 10:10am  11/2/2021</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case attended sheds A and B (also known as section 2) - Fruit and Vegetables, and used female toilets adjacent to shed A.  See a map of the Queen Victoria Market (PDF)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Maidstone</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
+          <t>Yarra Trams - No. 11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9:45am - 10:25am  5/2/2021</t>
+          <t>7:55am - 8:10am  11/2/2021</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Case attended venue</t>
+          <t>Case used tram no. 11  Start: D16- Harbour Esplanade/ Collins Street  Finish: William Street/ Collins Street #3</t>
         </is>
       </c>
     </row>
@@ -704,17 +704,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Queen Victoria Market  Queen Street  Melbourne VIC 3000</t>
+          <t>Yarra Trams - No. 58</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8:25am - 10:10am  11/2/2021</t>
+          <t>8:10am - 8:25am  11/2/2021</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case attended sheds A and B (also known as section 2) - Fruit and Vegetables, and used female toilets adjacent to shed A.  See a map of the Queen Victoria Market (PDF)</t>
+          <t>Case used tram no. 58  Start: Bourke Street/ William Street #5  Finish: Queen Victoria Market/ Peel Street #9</t>
         </is>
       </c>
     </row>
@@ -726,61 +726,61 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Yarra Trams - No. 11</t>
+          <t>Yarra Trams - No. 58</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7:55am - 8:10am  11/2/2021</t>
+          <t>9:40am - 9:55am  11/2/2021</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case used tram no. 11  Start: D16- Harbour Esplanade/ Collins Street  Finish: William Street/ Collins Street #3</t>
+          <t>Case used tram no. 58  Start: Queen Victoria Market/Peel Street #9  Finish: Bourke Street/ William Street #5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Melbourne Airport</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Yarra Trams - No. 58</t>
+          <t>901 Frankston to Melbourne Airport bus route:  Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8:10am - 8:25am  11/2/2021</t>
+          <t>1:02pm  1:49pm  9/2/2021</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case used tram no. 58  Start: Bourke Street/ William Street #5  Finish: Queen Victoria Market/ Peel Street #9</t>
+          <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Melbourne Airport</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Yarra Trams - No. 58</t>
+          <t>Brunetti: Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9:40am - 9:55am  11/2/2021</t>
+          <t>4:45am - 1:15pm  9/2/2021</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case used tram no. 58  Start: Queen Victoria Market/Peel Street #9  Finish: Bourke Street/ William Street #5</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
@@ -792,34 +792,34 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>901 Frankston to Melbourne Airport bus route:  Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>Terminal 4, Melbourne Airport</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1:02pm  1:49pm  9/2/2021</t>
+          <t>4:45am - 2:00pm  9/2/2021</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
+          <t>Case attended venue</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Melbourne Airport</t>
+          <t>Pascoe Vale</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Brunetti: Terminal 4, Melbourne Airport</t>
+          <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4:45am - 1:15pm  9/2/2021</t>
+          <t>5pm - 5:30pm 8/2/2021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -831,17 +831,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Melbourne Airport</t>
+          <t>Pascoe Vale</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Terminal 4, Melbourne Airport</t>
+          <t>Oak Park Sports and Aquatic Centre, 563a Pascoe Vale Road</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4:45am - 2:00pm  9/2/2021</t>
+          <t>4pm - 7:30pm 10/2/2021</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -853,17 +853,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Moorabbin Airport</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5:00pm - 5:45pm  1/2/2021</t>
+          <t>3:45pm - 4:23pm  5/2/2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -875,17 +875,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pascoe Vale</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
+          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5pm - 6pm 8/2/2021</t>
+          <t>3:57pm - 4:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -897,17 +897,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pascoe Vale</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Oak Park Sports and Aquatic Centre, 563a Pascoe Vale Road</t>
+          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4pm - 7:30pm 10/2/2021</t>
+          <t>3:40pm - 4:15pm  5/2/2021</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -919,17 +919,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11:30am - 12:15pm  1/2/2021</t>
+          <t>5:44pm - 6:19pm  7/2/2021</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -941,17 +941,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
+          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6:50pm - 7:30pm  1/2/2021</t>
+          <t>6:17pm - 7:02pm  6/2/2021</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -963,17 +963,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Sunbury</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
+          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6:30pm - 7:30pm  1/2/2021</t>
+          <t>3:37pm - 4:10pm  5/2/2021</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -990,12 +990,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3:45pm - 4:23pm  5/2/2021</t>
+          <t>4:30pm - 6:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3:57pm - 4:30pm  5/2/2021</t>
+          <t>3:53pm - 4:28pm  5/2/2021</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1029,17 +1029,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Sunshine</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3:40pm - 4:15pm  5/2/2021</t>
+          <t>5:50pm - 6:30pm  5/2/2021</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1051,17 +1051,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Sunshine</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5:44pm - 6:19pm  7/2/2021</t>
+          <t>6:50pm - 7:30pm  6/2/2021</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1073,152 +1073,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sunbury</t>
+          <t>Taylors Lakes</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>6:17pm - 7:02pm  6/2/2021</t>
+          <t>1:00pm - 1:52pm  6/2/2021</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Sunbury</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>3:37pm - 4:10pm  5/2/2021</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Sunbury</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>4:30pm - 6:30pm  6/2/2021</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Sunbury</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3:53pm - 4:28pm  5/2/2021</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Sunshine</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>5:50pm - 6:30pm  5/2/2021</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Sunshine</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>6:50pm - 7:30pm  6/2/2021</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Taylors Lakes</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1:00pm - 1:52pm  6/2/2021</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
         <is>
           <t>Case attended venue</t>
         </is>
